--- a/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_first_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_GVA_matched_to_ifoCAST_since_2022/ifo_qoq_matched_error_tables_first_since_2022_GVA.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02681122701900491</v>
+        <v>0.02698403094954239</v>
       </c>
       <c r="C2">
-        <v>0.5624050978603753</v>
+        <v>0.5268716437348214</v>
       </c>
       <c r="D2">
-        <v>0.4448107246025121</v>
+        <v>0.4152143131774279</v>
       </c>
       <c r="E2">
-        <v>0.6669413202092911</v>
+        <v>0.644371254152005</v>
       </c>
       <c r="F2">
-        <v>0.691558238156938</v>
+        <v>0.6664025289764616</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2946554844788659</v>
+        <v>0.2756751091950668</v>
       </c>
       <c r="C3">
-        <v>0.5846008494123902</v>
+        <v>0.5449100909190536</v>
       </c>
       <c r="D3">
-        <v>0.5058207790342583</v>
+        <v>0.4697505061201764</v>
       </c>
       <c r="E3">
-        <v>0.7112107838287172</v>
+        <v>0.6853834737722937</v>
       </c>
       <c r="F3">
-        <v>0.6737325148324927</v>
+        <v>0.6511854494255666</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4391857373321811</v>
+        <v>0.4115260714657983</v>
       </c>
       <c r="C4">
-        <v>0.7483904779288912</v>
+        <v>0.6969458320166075</v>
       </c>
       <c r="D4">
-        <v>1.020767617999092</v>
+        <v>0.9427345523843811</v>
       </c>
       <c r="E4">
-        <v>1.010330449901958</v>
+        <v>0.9709451850564897</v>
       </c>
       <c r="F4">
-        <v>0.9503397513749285</v>
+        <v>0.9153301309522154</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6793187199008687</v>
+        <v>0.6262380286368737</v>
       </c>
       <c r="C5">
-        <v>0.699459857302279</v>
+        <v>0.6447007379214998</v>
       </c>
       <c r="D5">
-        <v>0.8775463986867051</v>
+        <v>0.8045669953357346</v>
       </c>
       <c r="E5">
-        <v>0.9367744652191931</v>
+        <v>0.8969765857232477</v>
       </c>
       <c r="F5">
-        <v>0.6765203049627153</v>
+        <v>0.6707333247272815</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5388512557305355</v>
+        <v>0.5245105352011469</v>
       </c>
       <c r="C6">
-        <v>0.5642457987786638</v>
+        <v>0.5475964834267181</v>
       </c>
       <c r="D6">
-        <v>0.4561623321217761</v>
+        <v>0.4278966426621968</v>
       </c>
       <c r="E6">
-        <v>0.6753979065127284</v>
+        <v>0.6541380914319215</v>
       </c>
       <c r="F6">
-        <v>0.4292133066170158</v>
+        <v>0.4099559430447661</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5447945874338607</v>
+        <v>0.5156605037261237</v>
       </c>
       <c r="C7">
-        <v>0.5828456481610012</v>
+        <v>0.5499064583805502</v>
       </c>
       <c r="D7">
-        <v>0.4402627955106973</v>
+        <v>0.4026603963166046</v>
       </c>
       <c r="E7">
-        <v>0.6635230180714888</v>
+        <v>0.6345552744376211</v>
       </c>
       <c r="F7">
-        <v>0.4017391686656284</v>
+        <v>0.3898071335267753</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4114212814424901</v>
+        <v>0.3926246975442547</v>
       </c>
       <c r="C8">
-        <v>0.471174553738714</v>
+        <v>0.4457387173631203</v>
       </c>
       <c r="D8">
-        <v>0.2558821511235103</v>
+        <v>0.2339714725847577</v>
       </c>
       <c r="E8">
-        <v>0.5058479525742002</v>
+        <v>0.4837059774126817</v>
       </c>
       <c r="F8">
-        <v>0.3146239120868499</v>
+        <v>0.2996572782295139</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.5712952452867734</v>
+        <v>0.5049883294650596</v>
       </c>
       <c r="C9">
-        <v>0.5712952452867734</v>
+        <v>0.5049883294650596</v>
       </c>
       <c r="D9">
-        <v>0.3353532442520196</v>
+        <v>0.284475404128805</v>
       </c>
       <c r="E9">
-        <v>0.5790969212938535</v>
+        <v>0.5333623572476829</v>
       </c>
       <c r="F9">
-        <v>0.105918523903665</v>
+        <v>0.1880282677670355</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.602910042273896</v>
+        <v>0.451441112860743</v>
       </c>
       <c r="C10">
-        <v>0.602910042273896</v>
+        <v>0.451441112860743</v>
       </c>
       <c r="D10">
-        <v>0.364779686804212</v>
+        <v>0.2505375300224135</v>
       </c>
       <c r="E10">
-        <v>0.6039699386593773</v>
+        <v>0.5005372413940979</v>
       </c>
       <c r="F10">
-        <v>0.05057999069792214</v>
+        <v>0.2647785441877819</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
